--- a/07042020_Final/Excel_Results/Results_Template.xlsx
+++ b/07042020_Final/Excel_Results/Results_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazen\OneDrive\Documents\Stage 4\Dissertation\Map_folders\07_04_20\07042020_Final\Excel_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E1BA63-614B-4B8E-AEAD-B9EB03CEA6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824DA00F-8461-483E-AB66-88FDE8DAD04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,105 +212,6 @@
     <t>Surface Water</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
@@ -453,6 +354,105 @@
   </si>
   <si>
     <t>Depth below ground</t>
+  </si>
+  <si>
+    <t>S1_2017</t>
+  </si>
+  <si>
+    <t>S2_2017</t>
+  </si>
+  <si>
+    <t>S3_2017</t>
+  </si>
+  <si>
+    <t>S4_2017</t>
+  </si>
+  <si>
+    <t>S5_2017</t>
+  </si>
+  <si>
+    <t>S6_2017</t>
+  </si>
+  <si>
+    <t>S7_2017</t>
+  </si>
+  <si>
+    <t>S8_2017</t>
+  </si>
+  <si>
+    <t>S9_2017</t>
+  </si>
+  <si>
+    <t>S10_2017</t>
+  </si>
+  <si>
+    <t>S11_2017</t>
+  </si>
+  <si>
+    <t>S12_2017</t>
+  </si>
+  <si>
+    <t>S13_2017</t>
+  </si>
+  <si>
+    <t>S14_2017</t>
+  </si>
+  <si>
+    <t>S15_2018</t>
+  </si>
+  <si>
+    <t>S16_2018</t>
+  </si>
+  <si>
+    <t>S17_2018</t>
+  </si>
+  <si>
+    <t>S18_2018</t>
+  </si>
+  <si>
+    <t>S19_2018</t>
+  </si>
+  <si>
+    <t>S20_2018</t>
+  </si>
+  <si>
+    <t>S21_2018</t>
+  </si>
+  <si>
+    <t>S22_2018</t>
+  </si>
+  <si>
+    <t>S23_2018</t>
+  </si>
+  <si>
+    <t>S24_2018</t>
+  </si>
+  <si>
+    <t>S25_2018</t>
+  </si>
+  <si>
+    <t>S26_2018</t>
+  </si>
+  <si>
+    <t>S27_2018</t>
+  </si>
+  <si>
+    <t>S28_2018</t>
+  </si>
+  <si>
+    <t>S29_2018</t>
+  </si>
+  <si>
+    <t>S30_2018</t>
+  </si>
+  <si>
+    <t>S31_2018</t>
+  </si>
+  <si>
+    <t>S32_2018</t>
+  </si>
+  <si>
+    <t>S33_2018</t>
   </si>
 </sst>
 </file>
@@ -785,10 +785,10 @@
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,136 +844,136 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AT1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AU1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AV1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AW1" t="s">
         <v>102</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AX1" t="s">
         <v>103</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AY1" t="s">
         <v>104</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
@@ -993,16 +993,16 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -1113,24 +1113,24 @@
         <v>11</v>
       </c>
       <c r="AU5" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="AV5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AW5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AX5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AY5" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
